--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.1528410476038</v>
+        <v>51.56869633333334</v>
       </c>
       <c r="H2">
-        <v>20.1528410476038</v>
+        <v>154.706089</v>
       </c>
       <c r="I2">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="J2">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N2">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q2">
-        <v>22.16715381810291</v>
+        <v>67.40578676860891</v>
       </c>
       <c r="R2">
-        <v>22.16715381810291</v>
+        <v>606.6520809174801</v>
       </c>
       <c r="S2">
-        <v>0.0009244509524926553</v>
+        <v>0.002331423289672401</v>
       </c>
       <c r="T2">
-        <v>0.0009244509524926553</v>
+        <v>0.002331423289672401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.1528410476038</v>
+        <v>51.56869633333334</v>
       </c>
       <c r="H3">
-        <v>20.1528410476038</v>
+        <v>154.706089</v>
       </c>
       <c r="I3">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="J3">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q3">
-        <v>1613.481388580457</v>
+        <v>4137.162453819031</v>
       </c>
       <c r="R3">
-        <v>1613.481388580457</v>
+        <v>37234.46208437128</v>
       </c>
       <c r="S3">
-        <v>0.0672880433249065</v>
+        <v>0.1430956800653181</v>
       </c>
       <c r="T3">
-        <v>0.0672880433249065</v>
+        <v>0.1430956800653181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.1528410476038</v>
+        <v>51.56869633333334</v>
       </c>
       <c r="H4">
-        <v>20.1528410476038</v>
+        <v>154.706089</v>
       </c>
       <c r="I4">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="J4">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N4">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q4">
-        <v>409.4393597084228</v>
+        <v>1161.010340872919</v>
       </c>
       <c r="R4">
-        <v>409.4393597084228</v>
+        <v>10449.09306785627</v>
       </c>
       <c r="S4">
-        <v>0.01707511073258873</v>
+        <v>0.040156886790055</v>
       </c>
       <c r="T4">
-        <v>0.01707511073258873</v>
+        <v>0.040156886790055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.221354192527</v>
+        <v>165.03522</v>
       </c>
       <c r="H5">
-        <v>162.221354192527</v>
+        <v>495.1056600000001</v>
       </c>
       <c r="I5">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="J5">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N5">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q5">
-        <v>178.4356708055447</v>
+        <v>215.7186362968</v>
       </c>
       <c r="R5">
-        <v>178.4356708055447</v>
+        <v>1941.4677266712</v>
       </c>
       <c r="S5">
-        <v>0.007441416574650209</v>
+        <v>0.007461250387970349</v>
       </c>
       <c r="T5">
-        <v>0.007441416574650209</v>
+        <v>0.007461250387970349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>162.221354192527</v>
+        <v>165.03522</v>
       </c>
       <c r="H6">
-        <v>162.221354192527</v>
+        <v>495.1056600000001</v>
       </c>
       <c r="I6">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="J6">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q6">
-        <v>12987.80331774025</v>
+        <v>13240.15467306714</v>
       </c>
       <c r="R6">
-        <v>12987.80331774025</v>
+        <v>119161.3920576043</v>
       </c>
       <c r="S6">
-        <v>0.541638644563697</v>
+        <v>0.4579488860447383</v>
       </c>
       <c r="T6">
-        <v>0.541638644563697</v>
+        <v>0.4579488860447383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>162.221354192527</v>
+        <v>165.03522</v>
       </c>
       <c r="H7">
-        <v>162.221354192527</v>
+        <v>495.1056600000001</v>
       </c>
       <c r="I7">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="J7">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N7">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O7">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P7">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q7">
-        <v>3295.803665335758</v>
+        <v>3715.57961810224</v>
       </c>
       <c r="R7">
-        <v>3295.803665335758</v>
+        <v>33440.21656292017</v>
       </c>
       <c r="S7">
-        <v>0.1374470021117567</v>
+        <v>0.1285140233732847</v>
       </c>
       <c r="T7">
-        <v>0.1374470021117567</v>
+        <v>0.1285140233732847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.9185350486812</v>
+        <v>61.26863233333334</v>
       </c>
       <c r="H8">
-        <v>53.9185350486812</v>
+        <v>183.805897</v>
       </c>
       <c r="I8">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="J8">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N8">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O8">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P8">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q8">
-        <v>59.30778976758726</v>
+        <v>80.08463778044889</v>
       </c>
       <c r="R8">
-        <v>59.30778976758726</v>
+        <v>720.7617400240401</v>
       </c>
       <c r="S8">
-        <v>0.002473350579455327</v>
+        <v>0.002769957871825759</v>
       </c>
       <c r="T8">
-        <v>0.002473350579455327</v>
+        <v>0.002769957871825759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.9185350486812</v>
+        <v>61.26863233333334</v>
       </c>
       <c r="H9">
-        <v>53.9185350486812</v>
+        <v>183.805897</v>
       </c>
       <c r="I9">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="J9">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P9">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q9">
-        <v>4316.838136869748</v>
+        <v>4915.351818239862</v>
       </c>
       <c r="R9">
-        <v>4316.838136869748</v>
+        <v>44238.16636415877</v>
       </c>
       <c r="S9">
-        <v>0.1800278538296978</v>
+        <v>0.1700116007148937</v>
       </c>
       <c r="T9">
-        <v>0.1800278538296978</v>
+        <v>0.1700116007148937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>53.9185350486812</v>
+        <v>61.26863233333334</v>
       </c>
       <c r="H10">
-        <v>53.9185350486812</v>
+        <v>183.805897</v>
       </c>
       <c r="I10">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="J10">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N10">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O10">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P10">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q10">
-        <v>1095.447059528765</v>
+        <v>1379.39332905263</v>
       </c>
       <c r="R10">
-        <v>1095.447059528765</v>
+        <v>12414.53996147367</v>
       </c>
       <c r="S10">
-        <v>0.045684127330755</v>
+        <v>0.04771029146224174</v>
       </c>
       <c r="T10">
-        <v>0.045684127330755</v>
+        <v>0.04771029146224174</v>
       </c>
     </row>
   </sheetData>
